--- a/Code/Results/Cases/Case_4_177/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_177/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.16030862120691</v>
+        <v>26.13880918633845</v>
       </c>
       <c r="C2">
-        <v>11.80937459847837</v>
+        <v>6.494139229403823</v>
       </c>
       <c r="D2">
-        <v>8.897840772988262</v>
+        <v>13.3469647552972</v>
       </c>
       <c r="E2">
-        <v>7.97073126433305</v>
+        <v>13.25214728482555</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>67.37110067903497</v>
+        <v>72.70950745627054</v>
       </c>
       <c r="H2">
-        <v>19.00421931691436</v>
+        <v>24.92428454187738</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.949356584062622</v>
+        <v>8.11127083859874</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.580503370485129</v>
+        <v>13.55151225906293</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.73147998393131</v>
+        <v>25.91458437953561</v>
       </c>
       <c r="C3">
-        <v>11.0273448033704</v>
+        <v>6.1684309188031</v>
       </c>
       <c r="D3">
-        <v>8.727037736528342</v>
+        <v>13.353890004925</v>
       </c>
       <c r="E3">
-        <v>7.984357395594448</v>
+        <v>13.2768983479744</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>64.76214071313466</v>
+        <v>72.27631281579214</v>
       </c>
       <c r="H3">
-        <v>18.58098162645381</v>
+        <v>24.90078310381657</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.959461377832708</v>
+        <v>8.114537807367885</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.392457386354096</v>
+        <v>13.5615865156254</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.82969242753537</v>
+        <v>25.78388185009584</v>
       </c>
       <c r="C4">
-        <v>10.52392998082892</v>
+        <v>5.961823492362269</v>
       </c>
       <c r="D4">
-        <v>8.627105153313074</v>
+        <v>13.36046839528703</v>
       </c>
       <c r="E4">
-        <v>7.995969581539971</v>
+        <v>13.2934550553058</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>63.17785890730197</v>
+        <v>72.02621939206459</v>
       </c>
       <c r="H4">
-        <v>18.33257560017389</v>
+        <v>24.89090967871217</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.965930795146408</v>
+        <v>8.116665879284195</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.281335313676001</v>
+        <v>13.57024054995178</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.45632237018896</v>
+        <v>25.73242891012261</v>
       </c>
       <c r="C5">
-        <v>10.31285528677136</v>
+        <v>5.876102549606684</v>
       </c>
       <c r="D5">
-        <v>8.587608996855071</v>
+        <v>13.36373360340621</v>
       </c>
       <c r="E5">
-        <v>8.001490188826347</v>
+        <v>13.30054404691454</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>62.53701807377121</v>
+        <v>71.92835436858064</v>
       </c>
       <c r="H5">
-        <v>18.23416698987698</v>
+        <v>24.88803053075184</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.968633907425865</v>
+        <v>8.117563872930416</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.237148428485225</v>
+        <v>13.57438775753321</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.39397898292118</v>
+        <v>25.72399604050945</v>
       </c>
       <c r="C6">
-        <v>10.27744622491111</v>
+        <v>5.861780902048117</v>
       </c>
       <c r="D6">
-        <v>8.581124369131018</v>
+        <v>13.3643110706968</v>
       </c>
       <c r="E6">
-        <v>8.002453734471493</v>
+        <v>13.30174182895347</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>62.43090616865901</v>
+        <v>71.91235002309153</v>
       </c>
       <c r="H6">
-        <v>18.21799474359703</v>
+        <v>24.88762151105479</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.969086794905036</v>
+        <v>8.117714845738435</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.229877616134598</v>
+        <v>13.5751138762062</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.82468042426254</v>
+        <v>25.78318054024014</v>
       </c>
       <c r="C7">
-        <v>10.52110746061273</v>
+        <v>5.960673413059384</v>
       </c>
       <c r="D7">
-        <v>8.626567545358624</v>
+        <v>13.36051006535423</v>
       </c>
       <c r="E7">
-        <v>7.996040876747665</v>
+        <v>13.29354927498353</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>63.169196501385</v>
+        <v>72.02488308512918</v>
       </c>
       <c r="H7">
-        <v>18.33123709625409</v>
+        <v>24.89086621865951</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.965966979690779</v>
+        <v>8.116677865185441</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.280734947322239</v>
+        <v>13.57029396803922</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.67286302340999</v>
+        <v>26.06008411867064</v>
       </c>
       <c r="C8">
-        <v>11.54450020985553</v>
+        <v>6.383285724526318</v>
       </c>
       <c r="D8">
-        <v>8.837912765526562</v>
+        <v>13.34886951693235</v>
       </c>
       <c r="E8">
-        <v>7.974738715505948</v>
+        <v>13.26039938899866</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>66.46804358744681</v>
+        <v>72.5568787635147</v>
       </c>
       <c r="H8">
-        <v>18.85586805267795</v>
+        <v>24.91523486849</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.952785766842468</v>
+        <v>8.112371983784072</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.514767054642109</v>
+        <v>13.55447354534415</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.09584154302819</v>
+        <v>26.65578070353837</v>
       </c>
       <c r="C9">
-        <v>13.3715133820855</v>
+        <v>7.154431876375974</v>
       </c>
       <c r="D9">
-        <v>9.292379511001059</v>
+        <v>13.34451689747253</v>
       </c>
       <c r="E9">
-        <v>7.960066528586945</v>
+        <v>13.20617268167571</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>73.06803633628765</v>
+        <v>73.72349465669163</v>
       </c>
       <c r="H9">
-        <v>19.97886803307051</v>
+        <v>24.99921448655355</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.929038335751107</v>
+        <v>8.104893949193247</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.008084634855557</v>
+        <v>13.54303375754969</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.55860195785978</v>
+        <v>27.12182877788326</v>
       </c>
       <c r="C10">
-        <v>14.6117861089915</v>
+        <v>7.680342478930971</v>
       </c>
       <c r="D10">
-        <v>9.65215513619488</v>
+        <v>13.35259616507987</v>
       </c>
       <c r="E10">
-        <v>7.967866016532926</v>
+        <v>13.1728956479996</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>77.99556257907678</v>
+        <v>74.65177573189811</v>
       </c>
       <c r="H10">
-        <v>20.86687091826629</v>
+        <v>25.08299467161973</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.91287712822647</v>
+        <v>8.099983986123915</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.391889043096228</v>
+        <v>13.54655790223001</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.70514104035105</v>
+        <v>27.3391704826802</v>
       </c>
       <c r="C11">
-        <v>15.15592533229841</v>
+        <v>7.909897504619316</v>
       </c>
       <c r="D11">
-        <v>9.821915151933739</v>
+        <v>13.35871965483867</v>
       </c>
       <c r="E11">
-        <v>7.975965583568562</v>
+        <v>13.15918046869289</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>80.2575393176473</v>
+        <v>75.08854530258458</v>
       </c>
       <c r="H11">
-        <v>21.28613355153357</v>
+        <v>25.12589184531476</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.905808861807714</v>
+        <v>8.097876187810597</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.571397160612236</v>
+        <v>13.55074552117401</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.1341805922084</v>
+        <v>27.42216657561005</v>
       </c>
       <c r="C12">
-        <v>15.35929465898873</v>
+        <v>7.99687350835382</v>
       </c>
       <c r="D12">
-        <v>9.887128303619514</v>
+        <v>13.36139003914584</v>
       </c>
       <c r="E12">
-        <v>7.979736269838633</v>
+        <v>13.1541913398096</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>81.11756994054262</v>
+        <v>75.25593120345235</v>
       </c>
       <c r="H12">
-        <v>21.44727312781756</v>
+        <v>25.14282163300145</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.903173819318544</v>
+        <v>8.097096031848443</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.640116661640342</v>
+        <v>13.55270202258324</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.0420013684488</v>
+        <v>27.40426221655731</v>
       </c>
       <c r="C13">
-        <v>15.31561128356896</v>
+        <v>7.977031430672795</v>
       </c>
       <c r="D13">
-        <v>9.873041191798562</v>
+        <v>13.3607992988544</v>
       </c>
       <c r="E13">
-        <v>7.978892048888947</v>
+        <v>13.1552567434223</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>80.93218155150514</v>
+        <v>75.2197946409735</v>
       </c>
       <c r="H13">
-        <v>21.41246004782272</v>
+        <v>25.13914505813807</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.903739458510852</v>
+        <v>8.097263251888403</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.625282849488409</v>
+        <v>13.55226418272032</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.74053904503396</v>
+        <v>27.34598514610227</v>
       </c>
       <c r="C14">
-        <v>15.17270918422715</v>
+        <v>7.916959161501602</v>
       </c>
       <c r="D14">
-        <v>9.827261313595177</v>
+        <v>13.35893230691989</v>
       </c>
       <c r="E14">
-        <v>7.976261397640195</v>
+        <v>13.15876591175144</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>80.32822110315408</v>
+        <v>75.10227689145481</v>
       </c>
       <c r="H14">
-        <v>21.29934188375515</v>
+        <v>25.12727094669696</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.905591236732244</v>
+        <v>8.09781164309396</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.577035581524489</v>
+        <v>13.55089905941203</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.5552276260949</v>
+        <v>27.31037687743699</v>
       </c>
       <c r="C15">
-        <v>15.08483443828331</v>
+        <v>7.879972852809016</v>
       </c>
       <c r="D15">
-        <v>9.799342557076795</v>
+        <v>13.35783448460697</v>
       </c>
       <c r="E15">
-        <v>7.974743228553399</v>
+        <v>13.16094201000074</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>79.95874964681677</v>
+        <v>75.03055029864994</v>
       </c>
       <c r="H15">
-        <v>21.23036874221622</v>
+        <v>25.12008690258271</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.906730945195315</v>
+        <v>8.098149893597146</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.547580956800022</v>
+        <v>13.55011113314097</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.48293550156648</v>
+        <v>27.10772605543846</v>
       </c>
       <c r="C16">
-        <v>14.57583804168619</v>
+        <v>7.665140526279981</v>
       </c>
       <c r="D16">
-        <v>9.641187723595541</v>
+        <v>13.35224520689505</v>
       </c>
       <c r="E16">
-        <v>7.967432340720435</v>
+        <v>13.17382058964755</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>77.84818807411847</v>
+        <v>74.62351554886425</v>
       </c>
       <c r="H16">
-        <v>20.83979297475159</v>
+        <v>25.08028732967389</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.913344821344403</v>
+        <v>8.100124261004826</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.380259460356475</v>
+        <v>13.546336165089</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.81560733528227</v>
+        <v>26.98472049681468</v>
       </c>
       <c r="C17">
-        <v>14.25857937599609</v>
+        <v>7.530823473677331</v>
       </c>
       <c r="D17">
-        <v>9.54575898407111</v>
+        <v>13.34944312001444</v>
       </c>
       <c r="E17">
-        <v>7.9641462200205</v>
+        <v>13.18208552032937</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>76.55896165910396</v>
+        <v>74.37745947416661</v>
       </c>
       <c r="H17">
-        <v>20.60421819805008</v>
+        <v>25.05709560052975</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.917475301816502</v>
+        <v>8.101367638055693</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.27889328085265</v>
+        <v>13.54468171110355</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.44417791711795</v>
+        <v>26.91447749467547</v>
       </c>
       <c r="C18">
-        <v>14.07419804742962</v>
+        <v>7.452659009520706</v>
       </c>
       <c r="D18">
-        <v>9.491440840829164</v>
+        <v>13.34806191189453</v>
       </c>
       <c r="E18">
-        <v>7.962681290023122</v>
+        <v>13.18697320649488</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>75.81930921396138</v>
+        <v>74.23730424616963</v>
       </c>
       <c r="H18">
-        <v>20.47014995311268</v>
+        <v>25.04420693155105</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.919877670084101</v>
+        <v>8.102094637335588</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.22104956664043</v>
+        <v>13.54397344220581</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.32315969816148</v>
+        <v>26.89078364633079</v>
       </c>
       <c r="C19">
-        <v>14.01143729154419</v>
+        <v>7.426039681359192</v>
       </c>
       <c r="D19">
-        <v>9.473146178115451</v>
+        <v>13.34763385506536</v>
       </c>
       <c r="E19">
-        <v>7.962256909809599</v>
+        <v>13.18865109552836</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.56918552565335</v>
+        <v>74.19008810036425</v>
       </c>
       <c r="H19">
-        <v>20.4249974096302</v>
+        <v>25.03992050583933</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.920695624886489</v>
+        <v>8.102342822582125</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.201542703176431</v>
+        <v>13.54377545070503</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.88701569633719</v>
+        <v>26.99776275344604</v>
       </c>
       <c r="C20">
-        <v>14.29254764658172</v>
+        <v>7.545216261947625</v>
       </c>
       <c r="D20">
-        <v>9.555858217079413</v>
+        <v>13.349717556266</v>
       </c>
       <c r="E20">
-        <v>7.964451693891082</v>
+        <v>13.18119184500882</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>76.69600470563964</v>
+        <v>74.403511461414</v>
       </c>
       <c r="H20">
-        <v>20.62914660462711</v>
+        <v>25.05951778033407</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.917032844876208</v>
+        <v>8.101234053342523</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.289636114691479</v>
+        <v>13.54483265279631</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.82922207104376</v>
+        <v>27.36308430244624</v>
       </c>
       <c r="C21">
-        <v>15.21475408912623</v>
+        <v>7.934643591182017</v>
       </c>
       <c r="D21">
-        <v>9.840682280321085</v>
+        <v>13.35947115167568</v>
       </c>
       <c r="E21">
-        <v>7.977014568776402</v>
+        <v>13.15772963413734</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>80.50551931213589</v>
+        <v>75.13674143678918</v>
       </c>
       <c r="H21">
-        <v>21.33250141531649</v>
+        <v>25.13074007907844</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.905046188829549</v>
+        <v>8.097650078709338</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.591186415465538</v>
+        <v>13.55128997561268</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.06887252778758</v>
+        <v>27.60585081656965</v>
       </c>
       <c r="C22">
-        <v>15.80193963260819</v>
+        <v>8.210992115702572</v>
       </c>
       <c r="D22">
-        <v>10.03227998842655</v>
+        <v>13.36789442541768</v>
       </c>
       <c r="E22">
-        <v>7.989353279452563</v>
+        <v>13.14358774042579</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>83.0159079545156</v>
+        <v>75.62750715656904</v>
       </c>
       <c r="H22">
-        <v>21.80613399162621</v>
+        <v>25.18128223329221</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.897455065212533</v>
+        <v>8.095412758350012</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.79263104031654</v>
+        <v>13.55767060951065</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.40983629129918</v>
+        <v>27.47593950736275</v>
       </c>
       <c r="C23">
-        <v>15.48989369515285</v>
+        <v>8.06033040914634</v>
       </c>
       <c r="D23">
-        <v>9.929500915571753</v>
+        <v>13.3632115236098</v>
       </c>
       <c r="E23">
-        <v>7.982372330679851</v>
+        <v>13.15102648966904</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>81.67393513290335</v>
+        <v>75.36455052222004</v>
       </c>
       <c r="H23">
-        <v>21.55200236292239</v>
+        <v>25.15394248820695</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.901484018597666</v>
+        <v>8.096597270360133</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.684700347693147</v>
+        <v>13.55406781893658</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.85474374539401</v>
+        <v>26.9918648655948</v>
       </c>
       <c r="C24">
-        <v>14.27719678933646</v>
+        <v>7.538712217665863</v>
       </c>
       <c r="D24">
-        <v>9.551290659656205</v>
+        <v>13.34959276798494</v>
       </c>
       <c r="E24">
-        <v>7.964312271168302</v>
+        <v>13.18159545179603</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>76.63404278138913</v>
+        <v>74.39172928406535</v>
       </c>
       <c r="H24">
-        <v>20.61787222715282</v>
+        <v>25.05842132793992</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.917232793432447</v>
+        <v>8.101294409094191</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.284777933226213</v>
+        <v>13.54476365541569</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.19200691973146</v>
+        <v>26.48936371206138</v>
       </c>
       <c r="C25">
-        <v>12.89579731872878</v>
+        <v>6.952616082744317</v>
       </c>
       <c r="D25">
-        <v>9.165017540734368</v>
+        <v>13.34371429069615</v>
       </c>
       <c r="E25">
-        <v>7.960933876979113</v>
+        <v>13.21968923519066</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>71.26924836198394</v>
+        <v>73.39507930445308</v>
       </c>
       <c r="H25">
-        <v>19.66447448664524</v>
+        <v>24.97261650779716</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.93523770840947</v>
+        <v>8.106814042713074</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.870932210446274</v>
+        <v>13.54403218868781</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_177/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_177/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.13880918633845</v>
+        <v>24.16030862120694</v>
       </c>
       <c r="C2">
-        <v>6.494139229403823</v>
+        <v>11.80937459847831</v>
       </c>
       <c r="D2">
-        <v>13.3469647552972</v>
+        <v>8.897840772988289</v>
       </c>
       <c r="E2">
-        <v>13.25214728482555</v>
+        <v>7.970731264332988</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>72.70950745627054</v>
+        <v>67.37110067903504</v>
       </c>
       <c r="H2">
-        <v>24.92428454187738</v>
+        <v>19.00421931691443</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.11127083859874</v>
+        <v>4.949356584062622</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.55151225906293</v>
+        <v>8.580503370485177</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.91458437953561</v>
+        <v>22.73147998393131</v>
       </c>
       <c r="C3">
-        <v>6.1684309188031</v>
+        <v>11.02734480337047</v>
       </c>
       <c r="D3">
-        <v>13.353890004925</v>
+        <v>8.727037736528358</v>
       </c>
       <c r="E3">
-        <v>13.2768983479744</v>
+        <v>7.984357395594517</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>72.27631281579214</v>
+        <v>64.76214071313458</v>
       </c>
       <c r="H3">
-        <v>24.90078310381657</v>
+        <v>18.5809816264537</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.114537807367885</v>
+        <v>4.959461377832708</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.5615865156254</v>
+        <v>8.392457386354028</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.78388185009584</v>
+        <v>21.82969242753537</v>
       </c>
       <c r="C4">
-        <v>5.961823492362269</v>
+        <v>10.52392998082901</v>
       </c>
       <c r="D4">
-        <v>13.36046839528703</v>
+        <v>8.627105153313154</v>
       </c>
       <c r="E4">
-        <v>13.2934550553058</v>
+        <v>7.995969581540035</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>72.02621939206459</v>
+        <v>63.17785890730173</v>
       </c>
       <c r="H4">
-        <v>24.89090967871217</v>
+        <v>18.33257560017385</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.116665879284195</v>
+        <v>4.965930795146375</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.57024054995178</v>
+        <v>8.281335313675987</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.73242891012261</v>
+        <v>21.45632237018886</v>
       </c>
       <c r="C5">
-        <v>5.876102549606684</v>
+        <v>10.31285528677117</v>
       </c>
       <c r="D5">
-        <v>13.36373360340621</v>
+        <v>8.587608996855</v>
       </c>
       <c r="E5">
-        <v>13.30054404691454</v>
+        <v>8.001490188826248</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>71.92835436858064</v>
+        <v>62.53701807377141</v>
       </c>
       <c r="H5">
-        <v>24.88803053075184</v>
+        <v>18.23416698987681</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.117563872930416</v>
+        <v>4.968633907425867</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.57438775753321</v>
+        <v>8.237148428485243</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.72399604050945</v>
+        <v>21.39397898292114</v>
       </c>
       <c r="C6">
-        <v>5.861780902048117</v>
+        <v>10.27744622491119</v>
       </c>
       <c r="D6">
-        <v>13.3643110706968</v>
+        <v>8.581124369131</v>
       </c>
       <c r="E6">
-        <v>13.30174182895347</v>
+        <v>8.002453734471445</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>71.91235002309153</v>
+        <v>62.43090616865894</v>
       </c>
       <c r="H6">
-        <v>24.88762151105479</v>
+        <v>18.21799474359696</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.117714845738435</v>
+        <v>4.969086794904969</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.5751138762062</v>
+        <v>8.22987761613456</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.78318054024014</v>
+        <v>21.82468042426251</v>
       </c>
       <c r="C7">
-        <v>5.960673413059384</v>
+        <v>10.52110746061269</v>
       </c>
       <c r="D7">
-        <v>13.36051006535423</v>
+        <v>8.626567545358723</v>
       </c>
       <c r="E7">
-        <v>13.29354927498353</v>
+        <v>7.996040876747626</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>72.02488308512918</v>
+        <v>63.169196501385</v>
       </c>
       <c r="H7">
-        <v>24.89086621865951</v>
+        <v>18.33123709625402</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.116677865185441</v>
+        <v>4.965966979690645</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.57029396803922</v>
+        <v>8.280734947322161</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.06008411867064</v>
+        <v>23.67286302340993</v>
       </c>
       <c r="C8">
-        <v>6.383285724526318</v>
+        <v>11.54450020985529</v>
       </c>
       <c r="D8">
-        <v>13.34886951693235</v>
+        <v>8.837912765526493</v>
       </c>
       <c r="E8">
-        <v>13.26039938899866</v>
+        <v>7.974738715506012</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>72.5568787635147</v>
+        <v>66.46804358744697</v>
       </c>
       <c r="H8">
-        <v>24.91523486849</v>
+        <v>18.85586805267799</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.112371983784072</v>
+        <v>4.952785766842535</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.55447354534415</v>
+        <v>8.514767054642144</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.65578070353837</v>
+        <v>27.09584154302819</v>
       </c>
       <c r="C9">
-        <v>7.154431876375974</v>
+        <v>13.3715133820855</v>
       </c>
       <c r="D9">
-        <v>13.34451689747253</v>
+        <v>9.292379511000989</v>
       </c>
       <c r="E9">
-        <v>13.20617268167571</v>
+        <v>7.960066528586865</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>73.72349465669163</v>
+        <v>73.06803633628761</v>
       </c>
       <c r="H9">
-        <v>24.99921448655355</v>
+        <v>19.97886803307058</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.104893949193247</v>
+        <v>4.929038335751172</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.54303375754969</v>
+        <v>9.008084634855527</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.12182877788326</v>
+        <v>29.55860195785975</v>
       </c>
       <c r="C10">
-        <v>7.680342478930971</v>
+        <v>14.61178610899142</v>
       </c>
       <c r="D10">
-        <v>13.35259616507987</v>
+        <v>9.652155136194864</v>
       </c>
       <c r="E10">
-        <v>13.1728956479996</v>
+        <v>7.967866016532872</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>74.65177573189811</v>
+        <v>77.99556257907668</v>
       </c>
       <c r="H10">
-        <v>25.08299467161973</v>
+        <v>20.86687091826626</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.099983986123915</v>
+        <v>4.912877128226504</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.54655790223001</v>
+        <v>9.391889043096258</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.3391704826802</v>
+        <v>30.705141040351</v>
       </c>
       <c r="C11">
-        <v>7.909897504619316</v>
+        <v>15.15592533229833</v>
       </c>
       <c r="D11">
-        <v>13.35871965483867</v>
+        <v>9.82191515193375</v>
       </c>
       <c r="E11">
-        <v>13.15918046869289</v>
+        <v>7.975965583568556</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>75.08854530258458</v>
+        <v>80.25753931764709</v>
       </c>
       <c r="H11">
-        <v>25.12589184531476</v>
+        <v>21.28613355153352</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.097876187810597</v>
+        <v>4.905808861807647</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.55074552117401</v>
+        <v>9.571397160612237</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.42216657561005</v>
+        <v>31.13418059220835</v>
       </c>
       <c r="C12">
-        <v>7.99687350835382</v>
+        <v>15.35929465898846</v>
       </c>
       <c r="D12">
-        <v>13.36139003914584</v>
+        <v>9.887128303619566</v>
       </c>
       <c r="E12">
-        <v>13.1541913398096</v>
+        <v>7.979736269838631</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>75.25593120345235</v>
+        <v>81.11756994054269</v>
       </c>
       <c r="H12">
-        <v>25.14282163300145</v>
+        <v>21.44727312781759</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.097096031848443</v>
+        <v>4.903173819318445</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.55270202258324</v>
+        <v>9.640116661640361</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.40426221655731</v>
+        <v>31.0420013684487</v>
       </c>
       <c r="C13">
-        <v>7.977031430672795</v>
+        <v>15.31561128356895</v>
       </c>
       <c r="D13">
-        <v>13.3607992988544</v>
+        <v>9.873041191798574</v>
       </c>
       <c r="E13">
-        <v>13.1552567434223</v>
+        <v>7.978892048888897</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>75.2197946409735</v>
+        <v>80.93218155150488</v>
       </c>
       <c r="H13">
-        <v>25.13914505813807</v>
+        <v>21.41246004782272</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.097263251888403</v>
+        <v>4.903739458510752</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.55226418272032</v>
+        <v>9.625282849488396</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.34598514610227</v>
+        <v>30.740539045034</v>
       </c>
       <c r="C14">
-        <v>7.916959161501602</v>
+        <v>15.1727091842272</v>
       </c>
       <c r="D14">
-        <v>13.35893230691989</v>
+        <v>9.827261313595109</v>
       </c>
       <c r="E14">
-        <v>13.15876591175144</v>
+        <v>7.976261397640149</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>75.10227689145481</v>
+        <v>80.32822110315425</v>
       </c>
       <c r="H14">
-        <v>25.12727094669696</v>
+        <v>21.29934188375517</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.09781164309396</v>
+        <v>4.905591236732311</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.55089905941203</v>
+        <v>9.577035581524447</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.31037687743699</v>
+        <v>30.55522762609483</v>
       </c>
       <c r="C15">
-        <v>7.879972852809016</v>
+        <v>15.08483443828317</v>
       </c>
       <c r="D15">
-        <v>13.35783448460697</v>
+        <v>9.79934255707674</v>
       </c>
       <c r="E15">
-        <v>13.16094201000074</v>
+        <v>7.974743228553244</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>75.03055029864994</v>
+        <v>79.95874964681673</v>
       </c>
       <c r="H15">
-        <v>25.12008690258271</v>
+        <v>21.23036874221625</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.098149893597146</v>
+        <v>4.906730945195183</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.55011113314097</v>
+        <v>9.547580956799964</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.10772605543846</v>
+        <v>29.48293550156644</v>
       </c>
       <c r="C16">
-        <v>7.665140526279981</v>
+        <v>14.57583804168614</v>
       </c>
       <c r="D16">
-        <v>13.35224520689505</v>
+        <v>9.641187723595676</v>
       </c>
       <c r="E16">
-        <v>13.17382058964755</v>
+        <v>7.967432340720533</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>74.62351554886425</v>
+        <v>77.84818807411823</v>
       </c>
       <c r="H16">
-        <v>25.08028732967389</v>
+        <v>20.83979297475152</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.100124261004826</v>
+        <v>4.913344821344403</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.546336165089</v>
+        <v>9.380259460356541</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.98472049681468</v>
+        <v>28.81560733528231</v>
       </c>
       <c r="C17">
-        <v>7.530823473677331</v>
+        <v>14.2585793759963</v>
       </c>
       <c r="D17">
-        <v>13.34944312001444</v>
+        <v>9.54575898407122</v>
       </c>
       <c r="E17">
-        <v>13.18208552032937</v>
+        <v>7.964146220020604</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>74.37745947416661</v>
+        <v>76.55896165910372</v>
       </c>
       <c r="H17">
-        <v>25.05709560052975</v>
+        <v>20.60421819805004</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.101367638055693</v>
+        <v>4.917475301816566</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.54468171110355</v>
+        <v>9.27889328085268</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.91447749467547</v>
+        <v>28.44417791711798</v>
       </c>
       <c r="C18">
-        <v>7.452659009520706</v>
+        <v>14.07419804742948</v>
       </c>
       <c r="D18">
-        <v>13.34806191189453</v>
+        <v>9.491440840829291</v>
       </c>
       <c r="E18">
-        <v>13.18697320649488</v>
+        <v>7.962681290023246</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>74.23730424616963</v>
+        <v>75.81930921396125</v>
       </c>
       <c r="H18">
-        <v>25.04420693155105</v>
+        <v>20.4701499531127</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.102094637335588</v>
+        <v>4.919877670084131</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.54397344220581</v>
+        <v>9.221049566640497</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.89078364633079</v>
+        <v>28.32315969816149</v>
       </c>
       <c r="C19">
-        <v>7.426039681359192</v>
+        <v>14.01143729154418</v>
       </c>
       <c r="D19">
-        <v>13.34763385506536</v>
+        <v>9.473146178115565</v>
       </c>
       <c r="E19">
-        <v>13.18865109552836</v>
+        <v>7.9622569098097</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>74.19008810036425</v>
+        <v>75.56918552565331</v>
       </c>
       <c r="H19">
-        <v>25.03992050583933</v>
+        <v>20.42499740963019</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.102342822582125</v>
+        <v>4.920695624886454</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.54377545070503</v>
+        <v>9.201542703176473</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.99776275344604</v>
+        <v>28.88701569633725</v>
       </c>
       <c r="C20">
-        <v>7.545216261947625</v>
+        <v>14.2925476465818</v>
       </c>
       <c r="D20">
-        <v>13.349717556266</v>
+        <v>9.555858217079308</v>
       </c>
       <c r="E20">
-        <v>13.18119184500882</v>
+        <v>7.964451693890987</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>74.403511461414</v>
+        <v>76.69600470563942</v>
       </c>
       <c r="H20">
-        <v>25.05951778033407</v>
+        <v>20.62914660462703</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.101234053342523</v>
+        <v>4.917032844876111</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.54483265279631</v>
+        <v>9.289636114691413</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.36308430244624</v>
+        <v>30.82922207104373</v>
       </c>
       <c r="C21">
-        <v>7.934643591182017</v>
+        <v>15.21475408912595</v>
       </c>
       <c r="D21">
-        <v>13.35947115167568</v>
+        <v>9.840682280321069</v>
       </c>
       <c r="E21">
-        <v>13.15772963413734</v>
+        <v>7.977014568776284</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>75.13674143678918</v>
+        <v>80.50551931213573</v>
       </c>
       <c r="H21">
-        <v>25.13074007907844</v>
+        <v>21.3325014153165</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.097650078709338</v>
+        <v>4.905046188829549</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.55128997561268</v>
+        <v>9.591186415465561</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.60585081656965</v>
+        <v>32.0688725277875</v>
       </c>
       <c r="C22">
-        <v>8.210992115702572</v>
+        <v>15.8019396326081</v>
       </c>
       <c r="D22">
-        <v>13.36789442541768</v>
+        <v>10.03227998842657</v>
       </c>
       <c r="E22">
-        <v>13.14358774042579</v>
+        <v>7.989353279452506</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>75.62750715656904</v>
+        <v>83.01590795451531</v>
       </c>
       <c r="H22">
-        <v>25.18128223329221</v>
+        <v>21.80613399162619</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.095412758350012</v>
+        <v>4.897455065212365</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.55767060951065</v>
+        <v>9.79263104031652</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.47593950736275</v>
+        <v>31.40983629129909</v>
       </c>
       <c r="C23">
-        <v>8.06033040914634</v>
+        <v>15.48989369515278</v>
       </c>
       <c r="D23">
-        <v>13.3632115236098</v>
+        <v>9.929500915571801</v>
       </c>
       <c r="E23">
-        <v>13.15102648966904</v>
+        <v>7.982372330679868</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>75.36455052222004</v>
+        <v>81.67393513290325</v>
       </c>
       <c r="H23">
-        <v>25.15394248820695</v>
+        <v>21.55200236292239</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.096597270360133</v>
+        <v>4.901484018597733</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.55406781893658</v>
+        <v>9.684700347693157</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.9918648655948</v>
+        <v>28.85474374539414</v>
       </c>
       <c r="C24">
-        <v>7.538712217665863</v>
+        <v>14.27719678933642</v>
       </c>
       <c r="D24">
-        <v>13.34959276798494</v>
+        <v>9.551290659656175</v>
       </c>
       <c r="E24">
-        <v>13.18159545179603</v>
+        <v>7.964312271168214</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>74.39172928406535</v>
+        <v>76.63404278138925</v>
       </c>
       <c r="H24">
-        <v>25.05842132793992</v>
+        <v>20.61787222715276</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.101294409094191</v>
+        <v>4.91723279343238</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.54476365541569</v>
+        <v>9.284777933226176</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.48936371206138</v>
+        <v>26.19200691973143</v>
       </c>
       <c r="C25">
-        <v>6.952616082744317</v>
+        <v>12.89579731872884</v>
       </c>
       <c r="D25">
-        <v>13.34371429069615</v>
+        <v>9.165017540734423</v>
       </c>
       <c r="E25">
-        <v>13.21968923519066</v>
+        <v>7.96093387697912</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>73.39507930445308</v>
+        <v>71.26924836198395</v>
       </c>
       <c r="H25">
-        <v>24.97261650779716</v>
+        <v>19.66447448664514</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.106814042713074</v>
+        <v>4.935237708409403</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.54403218868781</v>
+        <v>8.870932210446254</v>
       </c>
       <c r="M25">
         <v>0</v>
